--- a/00.기획서/221017_선물시스템기획서_V100.xlsx
+++ b/00.기획서/221017_선물시스템기획서_V100.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12F7A1-40B6-4B24-B8A1-E5911B2B5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519C1E9-D24E-451F-B4BD-4EE20C9AC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>선물 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,19 @@
   </si>
   <si>
     <t>선물 버리기</t>
+  </si>
+  <si>
+    <t>선물 제공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인벤토리에 저장된 아이템을 드래그하여 캐릭터에게 드롭
+한 번에 하나의 아이템만 드래그 앤 드롭 가능
+아이템을 캐릭터에게 드롭하면 인벤토리에 해당 아이템 개수 1--
+캐릭터의 취향에 따라 캐릭터 애니메이션 출력
+캐릭터의 취향에 따라 호감도 변동
+ 캐릭터 Like에 해당하는 아이템을 드롭할 경우 호감도 상승
+ 캐릭터 Hate에 해당하는 아이템을 드롭할 경우 호감도 감소
+</t>
   </si>
 </sst>
 </file>
@@ -259,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,10 +298,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -300,7 +310,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -310,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
@@ -709,279 +725,279 @@
   <sheetData>
     <row r="1" spans="2:12" ht="9.75" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1">
       <c r="B24" s="3"/>
@@ -999,60 +1015,60 @@
       <c r="L24" s="2"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12">
       <c r="C30" s="1"/>
@@ -1082,60 +1098,60 @@
       <c r="L32" s="2"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" thickBot="1">
       <c r="B39" s="3"/>
@@ -1153,32 +1169,32 @@
       <c r="L39" s="2"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="2:12">
       <c r="C43" s="6"/>
@@ -1205,18 +1221,18 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="47" spans="2:12" ht="15.75" thickBot="1">
       <c r="B47" s="3"/>
@@ -1237,97 +1253,89 @@
       <c r="B49" s="5">
         <v>1</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="5">
         <v>2</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="5">
         <v>3</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="5">
         <v>4</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="5">
         <v>5</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:L22"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
     <mergeCell ref="C53:L53"/>
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C36:L36"/>
@@ -1338,6 +1346,14 @@
     <mergeCell ref="C51:L51"/>
     <mergeCell ref="C52:L52"/>
     <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:L22"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1376,36 +1392,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="9.75" customHeight="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1419,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1433,34 +1449,34 @@
   <sheetData>
     <row r="1" spans="2:13" ht="9.75" customHeight="1"/>
     <row r="2" spans="2:13">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1">
       <c r="B4" s="15" t="s">
@@ -1509,184 +1525,274 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="B16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C16:M18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C7:M12"/>
+    <mergeCell ref="B7:B12"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="C4:M6"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C7:M9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:M12"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C13:M15"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221017_선물시스템기획서_V100.xlsx
+++ b/00.기획서/221017_선물시스템기획서_V100.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519C1E9-D24E-451F-B4BD-4EE20C9AC524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="레퍼런스" sheetId="3" r:id="rId2"/>
-    <sheet name="플로우" sheetId="2" r:id="rId3"/>
-    <sheet name="시스템" sheetId="4" r:id="rId4"/>
+    <sheet name="플로우" sheetId="2" r:id="rId2"/>
+    <sheet name="시스템" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -131,51 +129,57 @@
 </t>
   </si>
   <si>
+    <t>선물</t>
+  </si>
+  <si>
+    <t>선물 버리기</t>
+  </si>
+  <si>
+    <t>선물하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>선물은 '산책' 컨텐츠에서만 획득 가능
 화면 내 선물을 터치하면 인벤토리에 저장
-드래그 앤 드롭을 통해 캐릭터에게 선물을 주거나 선물을 버릴 수 있음</t>
-  </si>
-  <si>
-    <t>선물</t>
-  </si>
-  <si>
-    <t>선물 버리기는 선물을 드래그하여 휴지통 아이콘에 드랍
-한 번에 하나의 선물만 버릴 수 있음
-선물이 휴지통 아이콘에 드랍될 경우 선물 개수 1--</t>
-  </si>
-  <si>
-    <t>선물 버리기</t>
-  </si>
-  <si>
-    <t>선물 제공</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인벤토리에 저장된 아이템을 드래그하여 캐릭터에게 드롭
-한 번에 하나의 아이템만 드래그 앤 드롭 가능
+아이템을 1초간 터치하면 UI 등장
+UI에 게임 아이템 텍스트와 선물하기, 선물 버리기 버튼 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인벤토리에 저장된 아이템을 1초간 터치하여 UI 출력
+한 번에 하나의 아이템만 선물 가능
 아이템을 캐릭터에게 드롭하면 인벤토리에 해당 아이템 개수 1--
 캐릭터의 취향에 따라 캐릭터 애니메이션 출력
 캐릭터의 취향에 따라 호감도 변동
  캐릭터 Like에 해당하는 아이템을 드롭할 경우 호감도 상승
  캐릭터 Hate에 해당하는 아이템을 드롭할 경우 호감도 감소
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 저장된 아이템을 1초간 터치하면 UI 출력
+UI 출력 후, 선물 버리기 버튼을 터치하여 선물을 버릴 수 있음
+한 번에 하나의 선물만 버릴 수 있음
+선물이 휴지통 아이콘에 드랍될 경우 선물 개수 1--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -183,7 +187,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -192,7 +196,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -200,7 +204,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -208,7 +212,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -301,6 +305,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -310,22 +320,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,296 +714,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:12">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="24" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
         <v>3</v>
@@ -1014,63 +1018,63 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="26" spans="2:12">
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="C27" s="9" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="C28" s="9" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="C29" s="9" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1082,7 +1086,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1">
+    <row r="32" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
         <v>6</v>
@@ -1097,63 +1101,63 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="34" spans="2:12">
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="C35" s="9" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="C36" s="9" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="C37" s="10" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="39" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
         <v>10</v>
@@ -1168,35 +1172,35 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="41" spans="2:12">
-      <c r="C41" s="9" t="s">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="C42" s="9" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1208,7 +1212,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1220,21 +1224,21 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="2:12">
-      <c r="C45" s="12" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="47" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -1249,93 +1253,101 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>1</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="2:12">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>2</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="2:12">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>3</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="2:12">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>4</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="2:12">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>5</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:L22"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
     <mergeCell ref="C53:L53"/>
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C36:L36"/>
@@ -1346,14 +1358,6 @@
     <mergeCell ref="C51:L51"/>
     <mergeCell ref="C52:L52"/>
     <mergeCell ref="C45:L45"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:L22"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1363,65 +1367,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:14">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1433,57 +1422,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:13">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1496,7 +1485,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1510,7 +1499,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1524,96 +1513,96 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1">
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="16" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1630,8 +1619,8 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="11"/>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1644,8 +1633,8 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="11"/>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1658,12 +1647,12 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1676,7 +1665,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1690,7 +1679,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1704,7 +1693,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1717,7 +1706,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1730,7 +1719,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1743,7 +1732,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1756,7 +1745,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1769,7 +1758,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
